--- a/source/samples/export/iTin.Export.Queries.SqlServerCeSample/output/sample9x/fromconfigfile/SalesData.xlsx
+++ b/source/samples/export/iTin.Export.Queries.SqlServerCeSample/output/sample9x/fromconfigfile/SalesData.xlsx
@@ -23,7 +23,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
-    <t>Title</t>
+    <t/>
   </si>
   <si>
     <t>FirstName</t>
@@ -319,13 +319,108 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <pivotSource xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+    <c:name>[]PivotSimple!PerEmploee</c:name>
+    <c:fmtId val="0"/>
+  </pivotSource>
+  <c:chart>
+    <pivotFmts xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <ser xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>
+              </c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'PivotSimple'!$A$1</c:f>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'PivotSimple'!$B$1</c:f>
+              <c:numCache>General</c:numCache>
+            </c:numRef>
+          </c:val>
+        </ser>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="0" name="PivotChart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="SomeUser" refreshedDate="40504.582403125001" createdVersion="1" refreshedVersion="3" recordCount="5" upgradeOnRefresh="1">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:H501" sheet="SalesData"/>
   </cacheSource>
   <cacheFields count="8">
-    <cacheField name="Title" numFmtId="0">
+    <cacheField name="Column1" numFmtId="0">
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="FirstName" numFmtId="0">
@@ -13430,6 +13525,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:H1"/>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.787400" right="0.787400" top="0.787400" bottom="0.787400" header="0.315" footer="0.315"/>
   <pageSetup paperSize="9" orientation="landscape"/>
   <headerFooter/>
@@ -13444,5 +13542,6 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <headerFooter/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/source/samples/export/iTin.Export.Queries.SqlServerCeSample/output/sample9x/fromconfigfile/SalesData.xlsx
+++ b/source/samples/export/iTin.Export.Queries.SqlServerCeSample/output/sample9x/fromconfigfile/SalesData.xlsx
@@ -252,50 +252,50 @@
     </xf>
   </cellStyleXfs>
   <cellXfs count="16">
-    <xf numFmtId="0" fontId="0"/>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" xfId="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" xfId="1" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="2" applyFont="1" fillId="3" applyFill="1" xfId="2">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="2" applyFont="1" fillId="3" applyFill="1" xfId="2" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="2" applyFont="1" fillId="3" applyFill="1" xfId="3">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="2" applyFont="1" fillId="3" applyFill="1" xfId="3" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="1" applyBorder="1" xfId="4">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="1" applyBorder="1" xfId="4" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="3" applyFont="1" fillId="5" applyFill="1" borderId="1" applyBorder="1" xfId="5">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="3" applyFont="1" fillId="5" applyFill="1" borderId="1" applyBorder="1" xfId="5" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="2" applyBorder="1" xfId="6">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="2" applyBorder="1" xfId="6" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="3" applyFont="1" fillId="5" applyFill="1" borderId="2" applyBorder="1" xfId="7">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="3" applyFont="1" fillId="5" applyFill="1" borderId="2" applyBorder="1" xfId="7" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="2" applyBorder="1" xfId="8">
+    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="2" applyBorder="1" xfId="8" applyProtection="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="5" applyFill="1" borderId="2" applyBorder="1" xfId="9">
+    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="5" applyFill="1" borderId="2" applyBorder="1" xfId="9" applyProtection="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="2" applyBorder="1" xfId="10">
+    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="2" applyBorder="1" xfId="10" applyProtection="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="5" applyFill="1" borderId="2" applyBorder="1" xfId="11">
+    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="5" applyFill="1" borderId="2" applyBorder="1" xfId="11" applyProtection="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="3" applyBorder="1" xfId="12">
+    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="3" applyBorder="1" xfId="12" applyProtection="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="5" applyFill="1" borderId="3" applyBorder="1" xfId="13">
+    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="5" applyFill="1" borderId="3" applyBorder="1" xfId="13" applyProtection="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="2" applyBorder="1" xfId="6">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="2" applyBorder="1" xfId="6" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="3" applyFont="1" fillId="5" applyFill="1" borderId="2" applyBorder="1" xfId="7">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="3" applyFont="1" fillId="5" applyFill="1" borderId="2" applyBorder="1" xfId="7" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>

--- a/source/samples/export/iTin.Export.Queries.SqlServerCeSample/output/sample9x/fromconfigfile/SalesData.xlsx
+++ b/source/samples/export/iTin.Export.Queries.SqlServerCeSample/output/sample9x/fromconfigfile/SalesData.xlsx
@@ -112,7 +112,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="d/M/yy"/>
+    <numFmt numFmtId="164" formatCode="dd/MM/yyyy"/>
     <numFmt numFmtId="165" formatCode="#,##0;[Black]\-#,##0"/>
   </numFmts>
   <fonts count="4">
